--- a/doc/ue_timemanager.xlsx
+++ b/doc/ue_timemanager.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="最小堆排序" sheetId="2" r:id="rId2"/>
+    <sheet name="插入时机" sheetId="3" r:id="rId3"/>
+    <sheet name="数据结构" sheetId="4" r:id="rId4"/>
+    <sheet name="UMG" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Uworld</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,57 +33,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/** Returns TimerManager instance for this world. */</t>
+  </si>
+  <si>
+    <t>inline FTimerManager&amp; GetTimerManager() const</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return (OwningGameInstance ? OwningGameInstance-&gt;GetTimerManager() : *TimerManager);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>UWorld::UWorld( const FObjectInitializer&amp; ObjectInitializer )</t>
+  </si>
+  <si>
+    <t>初始化函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimerManager = new FTimerManager();</t>
+  </si>
+  <si>
+    <t>创建TimerManager对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::FinishDestroy()</t>
+  </si>
+  <si>
+    <t>销毁函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (TimerManager)</t>
+  </si>
+  <si>
+    <t>delete TimerManager;</t>
+  </si>
+  <si>
+    <t>删除TimerManager对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameStateBase::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>if (ServerWorldTimeSecondsUpdateFrequency &gt; 0.f)</t>
+  </si>
+  <si>
+    <t>TimerManager.SetTimer(TimerHandle_UpdateServerTimeSeconds, this, &amp;AGameStateBase::UpdateServerTimeSeconds, ServerWorldTimeSecondsUpdateFrequency, true);</t>
+  </si>
+  <si>
+    <t>APlayerController::BeginInactiveState()</t>
+  </si>
+  <si>
+    <t>GetWorldTimerManager().SetTimer(TimerHandle_UnFreeze, this, &amp;APlayerController::UnFreeze, GetMinRespawnDelay());</t>
+  </si>
+  <si>
     <t>class FTimerManager* TimerManager;</t>
-  </si>
-  <si>
-    <t>/** Returns TimerManager instance for this world. */</t>
-  </si>
-  <si>
-    <t>inline FTimerManager&amp; GetTimerManager() const</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>return (OwningGameInstance ? OwningGameInstance-&gt;GetTimerManager() : *TimerManager);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>UWorld::UWorld( const FObjectInitializer&amp; ObjectInitializer )</t>
-  </si>
-  <si>
-    <t>初始化函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimerManager = new FTimerManager();</t>
-  </si>
-  <si>
-    <t>创建TimerManager对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::FinishDestroy()</t>
-  </si>
-  <si>
-    <t>销毁函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (TimerManager)</t>
-  </si>
-  <si>
-    <t>delete TimerManager;</t>
-  </si>
-  <si>
-    <t>删除TimerManager对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTimerManager就是负责在World内一些定时的处理函数，量级比较小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是就是一些简单逻辑再用，没多少调用！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部使用最小堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSparseArray&lt;FTimerData&gt; Timers;</t>
+  </si>
+  <si>
+    <t>/** The array of timers - all other arrays will index into this */</t>
+  </si>
+  <si>
+    <t>/** Heap of actively running timers. */</t>
+  </si>
+  <si>
+    <t>/** A map of object pointers to timers with delegates bound to those objects, for quick lookup */</t>
+  </si>
+  <si>
+    <t>TMap&lt;const void*, TSet&lt;FTimerHandle&gt;&gt; ObjectToTimers;</t>
+  </si>
+  <si>
+    <t>维护一个对象都和注册了那些事件，方便对象销毁时集中把Timer去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部就是Timer的真实数据：超时事件，代理回调对象和句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FTimerHandle&gt; ActiveTimerHeap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTimerHandle就是一个索引值，对应到Timer中的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_TickableTickTime);</t>
+  </si>
+  <si>
+    <t>if (TickType != LEVELTICK_TimeOnly &amp;&amp; !bIsPaused)</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TimerManager"), 5);</t>
+  </si>
+  <si>
+    <t>STAT(FScopeCycleCounter Context(GetTimerManager().GetStatId());)</t>
+  </si>
+  <si>
+    <t>GetTimerManager().Tick(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TickObjects"), 5);</t>
+  </si>
+  <si>
+    <t>FTickableGameObject::TickObjects(this, TickType, bIsPaused, DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>更新World自己的Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该对象不同于FTickTaskManagerInterface，后者是所有Tick的管理对象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生FTickableGameObject的对象Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和UMG的关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG的动画播放会用TimerManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWidgetAnimationPlayCallbackProxy::OnFinished(class UUMGSequencePlayer&amp; Player)</t>
+  </si>
+  <si>
+    <t>Player.OnSequenceFinishedPlaying().Remove(OnFinishedHandle);</t>
+  </si>
+  <si>
+    <t>// We delay the Finish trigger to next frame.</t>
+  </si>
+  <si>
+    <t>if (UWorld* World = WorldPtr.Get())</t>
+  </si>
+  <si>
+    <t>// Use a dummy timer handle as we don't need to store it for later but we don't need to look for something to clear</t>
+  </si>
+  <si>
+    <t>FTimerHandle TimerHandle;</t>
+  </si>
+  <si>
+    <t>World-&gt;GetTimerManager().SetTimer(TimerHandle, this, &amp;UWidgetAnimationPlayCallbackProxy::OnFinished_Delayed, 0.001f, false);</t>
   </si>
 </sst>
 </file>
@@ -422,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E26"/>
+  <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O48" sqref="O47:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,109 +573,440 @@
     <col min="2" max="2" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>7</v>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>